--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26300" windowHeight="13160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Self assesment</t>
   </si>
@@ -84,29 +84,32 @@
     <t>Robert</t>
   </si>
   <si>
-    <t>Alexander</t>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnus </t>
+  </si>
+  <si>
+    <t>Anna</t>
   </si>
   <si>
     <t>Morcel</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Daniel</t>
+    <t xml:space="preserve">Daniel </t>
   </si>
   <si>
     <t>Magnus</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacob </t>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,23 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,17 +151,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,66 +171,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -242,39 +214,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -592,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,314 +568,221 @@
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B11 B15:B24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobvejlinjensen/Honeyjar/files/assesments/firstround/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E543199-7360-4C0B-A7CB-7D848705B0B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Self assesment</t>
   </si>
@@ -103,12 +104,39 @@
   </si>
   <si>
     <t>Alex</t>
+  </si>
+  <si>
+    <t>Self assesment (Peter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good use of communication programs, and making sure everybody is on the right track. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very motivated. Asking everyone where we are in the project, and what needs to be done. </t>
+  </si>
+  <si>
+    <t>Guiding everyone on how to use the programs (github/sourcetree etc..) very helpful and good overview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as Ahmed. Asking relevant questions and keeping close contact. </t>
+  </si>
+  <si>
+    <t>Keeping close contact, and bringing a lot of ideas to the table.</t>
+  </si>
+  <si>
+    <t>Keeping contact and helps create overall overview of the project.</t>
+  </si>
+  <si>
+    <t>Haven't participated at all.</t>
+  </si>
+  <si>
+    <t>Keeping close contact (asking/responding when needed). Also very motivated and helps keeping an overview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -282,10 +310,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,14 +581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -568,7 +596,7 @@
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -579,78 +607,114 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -661,99 +725,99 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -767,14 +831,14 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -787,19 +851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +874,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -821,7 +885,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -832,7 +896,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +907,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +918,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -863,7 +927,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -872,7 +936,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -881,7 +945,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -890,7 +954,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -899,7 +963,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -908,7 +972,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -917,7 +981,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -926,7 +990,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -935,7 +999,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -944,7 +1008,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -953,7 +1017,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -962,7 +1026,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -971,7 +1035,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -980,7 +1044,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -989,7 +1053,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -998,7 +1062,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1007,7 +1071,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobvejlinjensen/Honeyjar/files/assesments/firstround/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Self assesment</t>
   </si>
@@ -103,12 +103,19 @@
   </si>
   <si>
     <t>Alex</t>
+  </si>
+  <si>
+    <t>Doing his best at understanding git, participatin in meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good comments to discussions some times a bit delayed, 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -556,15 +563,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -579,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,8 +611,12 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -614,43 +625,43 @@
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -661,99 +672,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,12 +809,12 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +825,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -821,7 +836,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -832,7 +847,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,7 +858,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,7 +869,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -863,7 +878,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -872,7 +887,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -881,7 +896,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -890,7 +905,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -899,7 +914,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -908,7 +923,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -917,7 +932,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -926,7 +941,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -935,7 +950,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -944,7 +959,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -953,7 +968,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -962,7 +977,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -971,7 +986,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -980,7 +995,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -989,7 +1004,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -998,7 +1013,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1007,7 +1022,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Self assesment</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t xml:space="preserve">Very good comments to discussions some times a bit delayed, 
 </t>
+  </si>
+  <si>
+    <t>Keeping close contact (asking/responding when needed). Also very motivated and helps keeping an overview</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -676,8 +679,12 @@
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -814,7 +821,7 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,7 +832,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -836,7 +843,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -847,7 +854,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,7 +865,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,7 +876,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -878,7 +885,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -887,7 +894,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -896,7 +903,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -905,7 +912,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -914,7 +921,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -923,7 +930,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -932,7 +939,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -941,7 +948,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -950,7 +957,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -959,7 +966,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CE464-F02A-48A5-9AB4-A9BB77E60E0B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="20508" windowHeight="7548" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Self assesment</t>
   </si>
@@ -113,12 +114,15 @@
   </si>
   <si>
     <t>Keeping close contact (asking/responding when needed). Also very motivated and helps keeping an overview</t>
+  </si>
+  <si>
+    <t>Good at explaining what we are gonna do or already did, and why. Doing my best to use the online platforms/tools. And try to come with relevant questions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -292,10 +296,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -563,22 +567,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="64.625" customWidth="1"/>
+    <col min="1" max="1" width="40.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="64.59765625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -589,28 +593,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -621,50 +629,50 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -675,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,7 +694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -697,85 +705,85 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -789,14 +797,14 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -809,19 +817,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,7 +840,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -843,7 +851,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -854,7 +862,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,7 +873,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,7 +884,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -885,7 +893,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -894,7 +902,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -903,7 +911,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -912,7 +920,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -921,7 +929,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -930,7 +938,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -939,7 +947,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -948,7 +956,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -957,7 +965,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -966,7 +974,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -975,7 +983,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -984,7 +992,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -993,7 +1001,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1002,7 +1010,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1011,7 +1019,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1020,7 +1028,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1029,7 +1037,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piiit\Documents\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CE464-F02A-48A5-9AB4-A9BB77E60E0B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="20508" windowHeight="7548" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20505" windowHeight="7545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Peer  and self assessment" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Self assesment</t>
   </si>
@@ -117,12 +116,21 @@
   </si>
   <si>
     <t>Good at explaining what we are gonna do or already did, and why. Doing my best to use the online platforms/tools. And try to come with relevant questions.</t>
+  </si>
+  <si>
+    <t>Decent activity on discord and good response times. Missed a meeting.</t>
+  </si>
+  <si>
+    <t>Research, hardware setup</t>
+  </si>
+  <si>
+    <t>Active collaborator, motivated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -296,10 +304,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grade" dataDxfId="0"/>
+    <tableColumn id="1" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,22 +575,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.09765625" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="64.59765625" customWidth="1"/>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="7" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -593,7 +601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,21 +612,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -629,50 +637,58 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -683,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -705,85 +721,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -797,14 +821,14 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please choose a grade">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -817,19 +841,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,7 +864,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,7 +875,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,7 +886,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,7 +897,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,7 +908,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -893,7 +917,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -902,7 +926,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -911,7 +935,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -920,7 +944,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -929,7 +953,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -938,7 +962,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -947,7 +971,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -956,7 +980,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -965,7 +989,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -974,7 +998,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -983,7 +1007,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -992,7 +1016,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1001,7 +1025,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1010,7 +1034,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1019,7 +1043,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1028,7 +1052,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1037,7 +1061,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150000" iterateDelta="1E-4"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Self assesment</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Active collaborator, motivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Active on Discord. 
+2) Good english communication and contribution to working environment
+and development of product. </t>
+  </si>
+  <si>
+    <t>1) Really good at creating a great working environment where the social
+relations between members of the project are prioritized and benefit greatly.
+2) Motivated about the project and great at coming up with ideas and 
+participating in discussions. 
+3) Has not been very active in the process of conducting documented work and sharing files and knowledge with other group members via the online platforms.</t>
   </si>
 </sst>
 </file>
@@ -578,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,8 +628,12 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -768,8 +784,12 @@
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -821,7 +841,7 @@
     <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C2:C11 C15:C24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Give at least two examples" sqref="C15:C24 C2:C11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,6 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Self assesment</t>
   </si>
@@ -138,11 +135,17 @@
 participating in discussions. 
 3) Has not been very active in the process of conducting documented work and sharing files and knowledge with other group members via the online platforms.</t>
   </si>
+  <si>
+    <t>Missed one meeting because of an exam so that's fine. Is very careful whenever he speaks and isn't afraid to ask for clarification.</t>
+  </si>
+  <si>
+    <t>Always wants to summarize in order to understand things better. Motivated and active in the meetings.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,8 +696,12 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -741,8 +748,12 @@
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">

--- a/files/assesments/firstround/assesments-peter.xlsx
+++ b/files/assesments/firstround/assesments-peter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morcel\Documents\GitHub\Honeyjar\files\assesments\firstround\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\assesments\firstround\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Self assesment</t>
   </si>
@@ -141,11 +141,17 @@
   <si>
     <t>Always wants to summarize in order to understand things better. Motivated and active in the meetings.</t>
   </si>
+  <si>
+    <t>participated in meetings good at coming with questions</t>
+  </si>
+  <si>
+    <t>Motivated and not afraid to ask the needed questions.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -593,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,8 +688,12 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -788,8 +798,12 @@
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
